--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-C5ar1.xlsx
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N2">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O2">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P2">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q2">
-        <v>164.0653321602364</v>
+        <v>179.0079224819329</v>
       </c>
       <c r="R2">
-        <v>164.0653321602364</v>
+        <v>1611.071302337396</v>
       </c>
       <c r="S2">
-        <v>0.01649054027918301</v>
+        <v>0.01612542037191728</v>
       </c>
       <c r="T2">
-        <v>0.01649054027918301</v>
+        <v>0.01612542037191728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N3">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O3">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P3">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q3">
-        <v>4034.916117896034</v>
+        <v>4430.680999403406</v>
       </c>
       <c r="R3">
-        <v>4034.916117896034</v>
+        <v>39876.12899463065</v>
       </c>
       <c r="S3">
-        <v>0.4055576268867344</v>
+        <v>0.3991253161236902</v>
       </c>
       <c r="T3">
-        <v>0.4055576268867344</v>
+        <v>0.3991253161236902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H4">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I4">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J4">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N4">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O4">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P4">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q4">
-        <v>78.64969639119528</v>
+        <v>81.58715044635301</v>
       </c>
       <c r="R4">
-        <v>78.64969639119528</v>
+        <v>734.284354017177</v>
       </c>
       <c r="S4">
-        <v>0.007905240974478466</v>
+        <v>0.007349546766719702</v>
       </c>
       <c r="T4">
-        <v>0.007905240974478466</v>
+        <v>0.0073495467667197</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N5">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O5">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P5">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q5">
-        <v>1934.259501736324</v>
+        <v>2019.389043044214</v>
       </c>
       <c r="R5">
-        <v>1934.259501736324</v>
+        <v>18174.50138739793</v>
       </c>
       <c r="S5">
-        <v>0.1944163572144707</v>
+        <v>0.1819109275279049</v>
       </c>
       <c r="T5">
-        <v>0.1944163572144707</v>
+        <v>0.1819109275279049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H6">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I6">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J6">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N6">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O6">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P6">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q6">
-        <v>105.654986562473</v>
+        <v>124.962460870895</v>
       </c>
       <c r="R6">
-        <v>105.654986562473</v>
+        <v>1124.662147838055</v>
       </c>
       <c r="S6">
-        <v>0.01061959762409377</v>
+        <v>0.01125688843439779</v>
       </c>
       <c r="T6">
-        <v>0.01061959762409377</v>
+        <v>0.01125688843439779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H7">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I7">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J7">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N7">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O7">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P7">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q7">
-        <v>2598.410051677776</v>
+        <v>3092.98489889601</v>
       </c>
       <c r="R7">
-        <v>2598.410051677776</v>
+        <v>27836.86409006409</v>
       </c>
       <c r="S7">
-        <v>0.2611714800124697</v>
+        <v>0.2786227615357312</v>
       </c>
       <c r="T7">
-        <v>0.2611714800124697</v>
+        <v>0.2786227615357311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H8">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I8">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J8">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1579467389034</v>
+        <v>1.193104333333333</v>
       </c>
       <c r="N8">
-        <v>1.1579467389034</v>
+        <v>3.579313</v>
       </c>
       <c r="O8">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="P8">
-        <v>0.03907264990609514</v>
+        <v>0.03883297235786565</v>
       </c>
       <c r="Q8">
-        <v>40.36602243826952</v>
+        <v>45.52640356507334</v>
       </c>
       <c r="R8">
-        <v>40.36602243826952</v>
+        <v>409.73763208566</v>
       </c>
       <c r="S8">
-        <v>0.004057271028339895</v>
+        <v>0.004101116784830886</v>
       </c>
       <c r="T8">
-        <v>0.004057271028339895</v>
+        <v>0.004101116784830885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H9">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I9">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J9">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.4777892986149</v>
+        <v>29.530898</v>
       </c>
       <c r="N9">
-        <v>28.4777892986149</v>
+        <v>88.59269400000001</v>
       </c>
       <c r="O9">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="P9">
-        <v>0.9609273500939048</v>
+        <v>0.9611670276421344</v>
       </c>
       <c r="Q9">
-        <v>992.7357133099531</v>
+        <v>1126.83823403012</v>
       </c>
       <c r="R9">
-        <v>992.7357133099531</v>
+        <v>10141.54410627108</v>
       </c>
       <c r="S9">
-        <v>0.09978188598022994</v>
+        <v>0.1015080224548081</v>
       </c>
       <c r="T9">
-        <v>0.09978188598022994</v>
+        <v>0.1015080224548081</v>
       </c>
     </row>
   </sheetData>
